--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,18 +415,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Viraj Thakkar</v>
+      </c>
+      <c r="B2" t="str">
+        <v>918460626019</v>
+      </c>
+      <c r="C2" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>parth</v>
       </c>
-      <c r="B2" t="str">
-        <v>919725898251</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="B3" t="str">
+        <v>9725 898251</v>
+      </c>
+      <c r="C3" t="str">
+        <v>number incorrect</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>wrong</v>
+      </c>
+      <c r="B4" t="str">
+        <v>9199999999</v>
+      </c>
+      <c r="C4" t="str">
         <v>message not sent</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,40 +415,106 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Viraj Thakkar</v>
+        <v>AGRAWAL MEGHA ADESHCHANDRA</v>
       </c>
       <c r="B2" t="str">
-        <v>918460626019</v>
+        <v>919377993445</v>
       </c>
       <c r="C2" t="str">
-        <v>message not sent</v>
+        <v>not registered on whatsapp</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>parth</v>
+        <v>AHUJA GURUBACHANSINGH  KARTARSINGH</v>
       </c>
       <c r="B3" t="str">
-        <v>9725 898251</v>
+        <v>919638473203</v>
       </c>
       <c r="C3" t="str">
-        <v>number incorrect</v>
+        <v>not registered on whatsapp</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>wrong</v>
+        <v>ALPANA YAGNESH BAKTARWALA</v>
       </c>
       <c r="B4" t="str">
-        <v>9199999999</v>
+        <v>919998909286</v>
       </c>
       <c r="C4" t="str">
-        <v>message not sent</v>
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>AMIN DHIRUBHAI KANTIBHAI</v>
+      </c>
+      <c r="B5" t="str">
+        <v>919909007800</v>
+      </c>
+      <c r="C5" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>AMIN PRATIKSHA BIPINCHANDRA</v>
+      </c>
+      <c r="B6" t="str">
+        <v>918511121054</v>
+      </c>
+      <c r="C6" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>ARORA SHIVANGINIBEN MUKESHBHAI</v>
+      </c>
+      <c r="B7" t="str">
+        <v>918347565504</v>
+      </c>
+      <c r="C7" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ATTARWALA MOHAMMEDSOHIL SAEEDAHMED</v>
+      </c>
+      <c r="B8" t="str">
+        <v>918401886087</v>
+      </c>
+      <c r="C8" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>BAKTARWALA ALPANA YAGNESH</v>
+      </c>
+      <c r="B9" t="str">
+        <v>919998909286</v>
+      </c>
+      <c r="C9" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>BALOLIA PALVISH KARSANBHAI</v>
+      </c>
+      <c r="B10" t="str">
+        <v>917874302909</v>
+      </c>
+      <c r="C10" t="str">
+        <v>not registered on whatsapp</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,106 +415,2284 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AGRAWAL MEGHA ADESHCHANDRA</v>
+        <v>BHAVSAR ROHANKUMAR ROHITBHAI</v>
       </c>
       <c r="B2" t="str">
-        <v>919377993445</v>
+        <v>917874778090</v>
       </c>
       <c r="C2" t="str">
-        <v>not registered on whatsapp</v>
+        <v>message not sent</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>AHUJA GURUBACHANSINGH  KARTARSINGH</v>
+        <v>BHAVSAR ROHITBHAI KESHARICHANDRA</v>
       </c>
       <c r="B3" t="str">
-        <v>919638473203</v>
+        <v>919825017922</v>
       </c>
       <c r="C3" t="str">
-        <v>not registered on whatsapp</v>
+        <v>message not sent</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ALPANA YAGNESH BAKTARWALA</v>
+        <v>400 message</v>
       </c>
       <c r="B4" t="str">
-        <v>919998909286</v>
+        <v>918460626019</v>
       </c>
       <c r="C4" t="str">
-        <v>not registered on whatsapp</v>
+        <v>message not sent</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>AMIN DHIRUBHAI KANTIBHAI</v>
+        <v>401 message</v>
       </c>
       <c r="B5" t="str">
-        <v>919909007800</v>
+        <v>918460626019</v>
       </c>
       <c r="C5" t="str">
-        <v>not registered on whatsapp</v>
+        <v>message not sent</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>AMIN PRATIKSHA BIPINCHANDRA</v>
+        <v>BHAVSAR ROHITKUMAR MANEKLAL</v>
       </c>
       <c r="B6" t="str">
-        <v>918511121054</v>
+        <v>919426416374</v>
       </c>
       <c r="C6" t="str">
-        <v>not registered on whatsapp</v>
+        <v>message not sent</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>ARORA SHIVANGINIBEN MUKESHBHAI</v>
+        <v>BHAVSAR RUDRA SANTOSH</v>
       </c>
       <c r="B7" t="str">
-        <v>918347565504</v>
+        <v>919909099490</v>
       </c>
       <c r="C7" t="str">
-        <v>not registered on whatsapp</v>
+        <v>message not sent</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>ATTARWALA MOHAMMEDSOHIL SAEEDAHMED</v>
+        <v>BHAVSAR SHIRISHCHANDRA DALSUKHBHAI</v>
       </c>
       <c r="B8" t="str">
-        <v>918401886087</v>
+        <v>919586662303</v>
       </c>
       <c r="C8" t="str">
-        <v>not registered on whatsapp</v>
+        <v>message not sent</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>BAKTARWALA ALPANA YAGNESH</v>
+        <v>BHAVSAR SMITA KALPESHBHAI</v>
       </c>
       <c r="B9" t="str">
-        <v>919998909286</v>
+        <v>918488012133</v>
       </c>
       <c r="C9" t="str">
-        <v>not registered on whatsapp</v>
+        <v>message not sent</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>BALOLIA PALVISH KARSANBHAI</v>
+        <v>BHAVSAR YOGENDRAKUMAR CHANDULAL</v>
       </c>
       <c r="B10" t="str">
-        <v>917874302909</v>
+        <v>919374270712</v>
       </c>
       <c r="C10" t="str">
-        <v>not registered on whatsapp</v>
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>BHEDI JITENDRA BUDHESINH</v>
+      </c>
+      <c r="B11" t="str">
+        <v>919825468656</v>
+      </c>
+      <c r="C11" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>BHIL MEHULKUMAR KANTIBHAI</v>
+      </c>
+      <c r="B12" t="str">
+        <v>916354646581</v>
+      </c>
+      <c r="C12" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>BHIL VINAYKUMAR VASTARAM</v>
+      </c>
+      <c r="B13" t="str">
+        <v>919737773669</v>
+      </c>
+      <c r="C13" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>BHIMADA RASIKLAL BECHARBHAI</v>
+      </c>
+      <c r="B14" t="str">
+        <v>919998411234</v>
+      </c>
+      <c r="C14" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>BHIMANI TAPAN RAMESHCHANDRA</v>
+      </c>
+      <c r="B15" t="str">
+        <v>919904720347</v>
+      </c>
+      <c r="C15" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>BHOI KISHANKUMAR VIKRAMBHAI</v>
+      </c>
+      <c r="B16" t="str">
+        <v>919016048852</v>
+      </c>
+      <c r="C16" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>BHOITE  JAYSHRI AJIT</v>
+      </c>
+      <c r="B17" t="str">
+        <v>918758848155</v>
+      </c>
+      <c r="C17" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>BHOITE GRISHMA YASHVANT</v>
+      </c>
+      <c r="B18" t="str">
+        <v>919033813678</v>
+      </c>
+      <c r="C18" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>BHOJANI NIRMALA VASHARAMBHAI</v>
+      </c>
+      <c r="B19" t="str">
+        <v>919409611221</v>
+      </c>
+      <c r="C19" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>BHOSALE MALA ASHWINKUMAR</v>
+      </c>
+      <c r="B20" t="str">
+        <v>919879342093</v>
+      </c>
+      <c r="C20" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>BHRAMBHATT KOMAL RASHMIKANT</v>
+      </c>
+      <c r="B21" t="str">
+        <v>917878216700</v>
+      </c>
+      <c r="C21" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>BHRAMBHATT MONICA DILIPKUMAR</v>
+      </c>
+      <c r="B22" t="str">
+        <v>919724912709</v>
+      </c>
+      <c r="C22" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>BHRAMBHATT PRAKASHCHNADRA SHANKARBHAI</v>
+      </c>
+      <c r="B23" t="str">
+        <v>919825545806</v>
+      </c>
+      <c r="C23" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>BHUVA MAHESHBHAI BHUPATBHAI</v>
+      </c>
+      <c r="B24" t="str">
+        <v>919510727222</v>
+      </c>
+      <c r="C24" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>BIDVE SHITAL CHANDRAKANT</v>
+      </c>
+      <c r="B25" t="str">
+        <v>918140772591</v>
+      </c>
+      <c r="C25" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>BILLAVA SHEKHARA SUBBUNHI</v>
+      </c>
+      <c r="B26" t="str">
+        <v>919374510540</v>
+      </c>
+      <c r="C26" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>BILLAWALA MAHAMMADFARUK MAHAMMADKHALID</v>
+      </c>
+      <c r="B27" t="str">
+        <v>919586838683</v>
+      </c>
+      <c r="C27" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>BILLAWALA ZAHIRHUSSAIN MOHAMMEDHIUSSAIN</v>
+      </c>
+      <c r="B28" t="str">
+        <v>919998585785</v>
+      </c>
+      <c r="C28" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>BIND REENADEVI SHREERAMPATI</v>
+      </c>
+      <c r="B29" t="str">
+        <v>919664809134</v>
+      </c>
+      <c r="C29" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Binita Dilipbhai Solanki</v>
+      </c>
+      <c r="B30" t="str">
+        <v>919825505061</v>
+      </c>
+      <c r="C30" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>BINIWALE BALMUKUND GOPALRAO</v>
+      </c>
+      <c r="B31" t="str">
+        <v>919824086122</v>
+      </c>
+      <c r="C31" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>BINIWALE KEDAR BALMUKUND</v>
+      </c>
+      <c r="B32" t="str">
+        <v>919824448070</v>
+      </c>
+      <c r="C32" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v xml:space="preserve">BINIWALE SULOCHNA BALMUKUND </v>
+      </c>
+      <c r="B33" t="str">
+        <v>919714766122</v>
+      </c>
+      <c r="C33" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>BINIWALE YASH SUDHIR</v>
+      </c>
+      <c r="B34" t="str">
+        <v>919601664928</v>
+      </c>
+      <c r="C34" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>BIRADE ANIL SHYAMRAO</v>
+      </c>
+      <c r="B35" t="str">
+        <v>919978811965</v>
+      </c>
+      <c r="C35" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>BISHNOI SEEMA BHAWARLAL</v>
+      </c>
+      <c r="B36" t="str">
+        <v>918160071263</v>
+      </c>
+      <c r="C36" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>BIYALA ANISHA ARVIND</v>
+      </c>
+      <c r="B37" t="str">
+        <v>919904278462</v>
+      </c>
+      <c r="C37" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>BIYANI AKSHAR KRISHNAKUMAR</v>
+      </c>
+      <c r="B38" t="str">
+        <v>919727727370</v>
+      </c>
+      <c r="C38" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>BODANA RAGENDRASINH BALVANTSINH</v>
+      </c>
+      <c r="B39" t="str">
+        <v>919537441055</v>
+      </c>
+      <c r="C39" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>BODHANWALA VARZAN ZARIR</v>
+      </c>
+      <c r="B40" t="str">
+        <v>919979111862</v>
+      </c>
+      <c r="C40" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>BODIWALA ABDULRAHIM GULAMHUSEN</v>
+      </c>
+      <c r="B41" t="str">
+        <v>919825754208</v>
+      </c>
+      <c r="C41" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>BODIWALA KABIR ABDULRAHIM</v>
+      </c>
+      <c r="B42" t="str">
+        <v>919824690089</v>
+      </c>
+      <c r="C42" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>BODIWALA MUMTAZBANU HARUN</v>
+      </c>
+      <c r="B43" t="str">
+        <v>919898639317</v>
+      </c>
+      <c r="C43" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>BODIWALA SARFRAJ FAKIRMAHMAD</v>
+      </c>
+      <c r="B44" t="str">
+        <v>919898838848</v>
+      </c>
+      <c r="C44" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>BOMLAYARDE JIGNESH JAYDEEP</v>
+      </c>
+      <c r="B45" t="str">
+        <v>919898767676</v>
+      </c>
+      <c r="C45" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>BORICHA PUSHPABEN MULAJIBHAI</v>
+      </c>
+      <c r="B46" t="str">
+        <v>918780414151</v>
+      </c>
+      <c r="C46" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>BORSE SUDHAKAR CHUDAMAN</v>
+      </c>
+      <c r="B47" t="str">
+        <v>919081487226</v>
+      </c>
+      <c r="C47" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Brabhatt Aakash Chinubhai</v>
+      </c>
+      <c r="B48" t="str">
+        <v>919924112541</v>
+      </c>
+      <c r="C48" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Brahambhatt Chirag Pravinbhai</v>
+      </c>
+      <c r="B49" t="str">
+        <v>919898516475</v>
+      </c>
+      <c r="C49" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Brahambhatt Shabdsharan Narharibhai</v>
+      </c>
+      <c r="B50" t="str">
+        <v>918238077799</v>
+      </c>
+      <c r="C50" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Brahbhatt Hirenkumar Kuberbhai</v>
+      </c>
+      <c r="B51" t="str">
+        <v>919737585811</v>
+      </c>
+      <c r="C51" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Brahbhatt Khush Atul</v>
+      </c>
+      <c r="B52" t="str">
+        <v>919099303911</v>
+      </c>
+      <c r="C52" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>BRAHBHATT UMANGKUMAR RANJITBHAI</v>
+      </c>
+      <c r="B53" t="str">
+        <v>919879112287</v>
+      </c>
+      <c r="C53" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>BRAHMANKAR ANITA JAGANNATH</v>
+      </c>
+      <c r="B54" t="str">
+        <v>919714146915</v>
+      </c>
+      <c r="C54" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>BRAHMBHAT BHARATIBEN DHIRAJBHAI</v>
+      </c>
+      <c r="B55" t="str">
+        <v>919925358996</v>
+      </c>
+      <c r="C55" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>BRAHMBHATT  MAHESHBHAI MULJIBHAI</v>
+      </c>
+      <c r="B56" t="str">
+        <v>919979707620</v>
+      </c>
+      <c r="C56" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>BRAHMBHATT AAKASH CHINUBHAI</v>
+      </c>
+      <c r="B57" t="str">
+        <v>919924112541</v>
+      </c>
+      <c r="C57" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>BRAHMBHATT AJITKUMAR INDRASINH</v>
+      </c>
+      <c r="B58" t="str">
+        <v>919824045803</v>
+      </c>
+      <c r="C58" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>BRAHMBHATT ASHOKKUMAR CHIMANLAL</v>
+      </c>
+      <c r="B59" t="str">
+        <v>919824810559</v>
+      </c>
+      <c r="C59" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>BRAHMBHATT CHIRAG PRAVINBHAI</v>
+      </c>
+      <c r="B60" t="str">
+        <v>919898516475</v>
+      </c>
+      <c r="C60" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>BRAHMBHATT DHRUVI RAJESHKUMAR</v>
+      </c>
+      <c r="B61" t="str">
+        <v>919537210218</v>
+      </c>
+      <c r="C61" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>BRAHMBHATT DIMPLE MUKESHKUMAR</v>
+      </c>
+      <c r="B62" t="str">
+        <v>919825064788</v>
+      </c>
+      <c r="C62" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>BRAHMBHATT DIPTI MADHUBHAI</v>
+      </c>
+      <c r="B63" t="str">
+        <v>919428761336</v>
+      </c>
+      <c r="C63" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>BRAHMBHATT DIPTIBEN GOPINATHBHAI</v>
+      </c>
+      <c r="B64" t="str">
+        <v>919727631871</v>
+      </c>
+      <c r="C64" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>BRAHMBHATT GAURAV RASHMIKANT</v>
+      </c>
+      <c r="B65" t="str">
+        <v>919825072974</v>
+      </c>
+      <c r="C65" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>BRAHMBHATT HEMANT A</v>
+      </c>
+      <c r="B66" t="str">
+        <v>919825741142</v>
+      </c>
+      <c r="C66" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>BRAHMBHATT HIRENKUMAR KUBERBHAI</v>
+      </c>
+      <c r="B67" t="str">
+        <v>919737585811</v>
+      </c>
+      <c r="C67" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v xml:space="preserve">BRAHMBHATT JAGDISHCHANDRA S </v>
+      </c>
+      <c r="B68" t="str">
+        <v>919426378386</v>
+      </c>
+      <c r="C68" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>BRAHMBHATT JEEL KAUSHALKUMAR</v>
+      </c>
+      <c r="B69" t="str">
+        <v>917069054443</v>
+      </c>
+      <c r="C69" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>BRAHMBHATT KETUL TARUNKUMAR</v>
+      </c>
+      <c r="B70" t="str">
+        <v>919898170308</v>
+      </c>
+      <c r="C70" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>BRAHMBHATT KHUSH ATUL</v>
+      </c>
+      <c r="B71" t="str">
+        <v>919099303911</v>
+      </c>
+      <c r="C71" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>BRAHMBHATT KOMAL RASHMIKANT</v>
+      </c>
+      <c r="B72" t="str">
+        <v>917878216700</v>
+      </c>
+      <c r="C72" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>BRAHMBHATT KRISHANA YOGESHBHAI</v>
+      </c>
+      <c r="B73" t="str">
+        <v>917284083567</v>
+      </c>
+      <c r="C73" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>BRAHMBHATT KRISHNABEN GHANSHYAMBHAI</v>
+      </c>
+      <c r="B74" t="str">
+        <v>919427368772</v>
+      </c>
+      <c r="C74" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>BRAHMBHATT MOHITKUMAR KUBERSING</v>
+      </c>
+      <c r="B75" t="str">
+        <v>919376189440</v>
+      </c>
+      <c r="C75" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>BRAHMBHATT PARANTAP VIJAYKUMAR</v>
+      </c>
+      <c r="B76" t="str">
+        <v>919033362209</v>
+      </c>
+      <c r="C76" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>BRAHMBHATT PARTH TUSHARKUMAR</v>
+      </c>
+      <c r="B77" t="str">
+        <v>916352302163</v>
+      </c>
+      <c r="C77" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>BRAHMBHATT PIYUSHKUMAR R</v>
+      </c>
+      <c r="B78" t="str">
+        <v>919909798991</v>
+      </c>
+      <c r="C78" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v xml:space="preserve">BRAHMBHATT PRAKASHCHANDRA S </v>
+      </c>
+      <c r="B79" t="str">
+        <v>919825545806</v>
+      </c>
+      <c r="C79" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>BRAHMBHATT PRIYANKA SANJAYBHAI</v>
+      </c>
+      <c r="B80" t="str">
+        <v>919662054473</v>
+      </c>
+      <c r="C80" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>BRAHMBHATT PURVI YOGINKUMAR</v>
+      </c>
+      <c r="B81" t="str">
+        <v>919428876155</v>
+      </c>
+      <c r="C81" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>BRAHMBHATT RUPALBAHEN SUBHASHCHANDRA</v>
+      </c>
+      <c r="B82" t="str">
+        <v>919727279273</v>
+      </c>
+      <c r="C82" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>BRAHMBHATT SEJALBEN CHANDRAKANT</v>
+      </c>
+      <c r="B83" t="str">
+        <v>917567458370</v>
+      </c>
+      <c r="C83" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>BRAHMBHATT SHABDASHARAN NARHARIBHAI</v>
+      </c>
+      <c r="B84" t="str">
+        <v>918238077799</v>
+      </c>
+      <c r="C84" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>BRAHMBHATT SWETABEN PRASHANTKUMAR</v>
+      </c>
+      <c r="B85" t="str">
+        <v>919510156938</v>
+      </c>
+      <c r="C85" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>BRAHMBHATT UMANGKUMAR RANJITBHAI</v>
+      </c>
+      <c r="B86" t="str">
+        <v>919879112287</v>
+      </c>
+      <c r="C86" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>BRAHMBHATT VARSHA JAGDISHKUMAR</v>
+      </c>
+      <c r="B87" t="str">
+        <v>919879165874</v>
+      </c>
+      <c r="C87" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v xml:space="preserve">BRAHMBHATT VINAYSHARAN R </v>
+      </c>
+      <c r="B88" t="str">
+        <v>919374034949</v>
+      </c>
+      <c r="C88" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>BRAHMBHATT VISHAKHA PARESHKUMAR</v>
+      </c>
+      <c r="B89" t="str">
+        <v>918511996600</v>
+      </c>
+      <c r="C89" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>BRAHMKHATRI KAPLESH ISHWARBHAI</v>
+      </c>
+      <c r="B90" t="str">
+        <v>918160379835</v>
+      </c>
+      <c r="C90" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>BRAHMKHATRI SUNNY ISHWARBHAI</v>
+      </c>
+      <c r="B91" t="str">
+        <v>917984777591</v>
+      </c>
+      <c r="C91" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>BUCH POONAM DHANANJAY</v>
+      </c>
+      <c r="B92" t="str">
+        <v>919924420926</v>
+      </c>
+      <c r="C92" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>BUKHARI KAJAMALI PYARESAB</v>
+      </c>
+      <c r="B93" t="str">
+        <v>919427034510</v>
+      </c>
+      <c r="C93" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>BUMIYA GAURANG KAUSHIKBHAI</v>
+      </c>
+      <c r="B94" t="str">
+        <v>919825618780</v>
+      </c>
+      <c r="C94" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>CASHI HEENABEN DIGVIJAYSINGH</v>
+      </c>
+      <c r="B95" t="str">
+        <v>919408150610</v>
+      </c>
+      <c r="C95" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>CHAMPANERI RUCHITABEN SANJAYKUMAR</v>
+      </c>
+      <c r="B96" t="str">
+        <v>919998194334</v>
+      </c>
+      <c r="C96" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>CHAND PUSHPAKUMARI RAMESHCHANDRA</v>
+      </c>
+      <c r="B97" t="str">
+        <v>917698806730</v>
+      </c>
+      <c r="C97" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>CHANDANI HEMLATA LAKHRAJ</v>
+      </c>
+      <c r="B98" t="str">
+        <v>919428301521</v>
+      </c>
+      <c r="C98" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>CHANDANI PRASHANT AKASH</v>
+      </c>
+      <c r="B99" t="str">
+        <v>918160854498</v>
+      </c>
+      <c r="C99" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Chandawani Jitendra Mohandas</v>
+      </c>
+      <c r="B100" t="str">
+        <v>919913647030</v>
+      </c>
+      <c r="C100" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>CHANDIRAMANI JAGDISH BHAGWANDAS</v>
+      </c>
+      <c r="B101" t="str">
+        <v>919825041368</v>
+      </c>
+      <c r="C101" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>CHANDRA PUSHPAKUMARI RAMESHCHANDRA</v>
+      </c>
+      <c r="B102" t="str">
+        <v>917698806730</v>
+      </c>
+      <c r="C102" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>CHANDRAVANA KOMAL M</v>
+      </c>
+      <c r="B103" t="str">
+        <v>91990901943</v>
+      </c>
+      <c r="C103" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>CHANDRAVANSHI AVANTIKA PREMKISHORSINGH</v>
+      </c>
+      <c r="B104" t="str">
+        <v>919997297712</v>
+      </c>
+      <c r="C104" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>CHANDWANI JITENDRA MOHANDAS</v>
+      </c>
+      <c r="B105" t="str">
+        <v>919913647030</v>
+      </c>
+      <c r="C105" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>500 message</v>
+      </c>
+      <c r="B106" t="str">
+        <v>918460626019</v>
+      </c>
+      <c r="C106" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>501 message</v>
+      </c>
+      <c r="B107" t="str">
+        <v>918460626019</v>
+      </c>
+      <c r="C107" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>CHARAN SHOBHA CHANDANSING</v>
+      </c>
+      <c r="B108" t="str">
+        <v>918156009080</v>
+      </c>
+      <c r="C108" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>CHARAVADA HETAL PRAFULCHANDRA</v>
+      </c>
+      <c r="B109" t="str">
+        <v>919825497571</v>
+      </c>
+      <c r="C109" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>CHARI PRARTHANA CHAKRAPANI</v>
+      </c>
+      <c r="B110" t="str">
+        <v>917228828822</v>
+      </c>
+      <c r="C110" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>CHATRIWALA HITENDRA VASANTLAL</v>
+      </c>
+      <c r="B111" t="str">
+        <v>919327263636</v>
+      </c>
+      <c r="C111" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>CHATTERJEE DIPENDRA PRADYOTKUMAR</v>
+      </c>
+      <c r="B112" t="str">
+        <v>918000236908</v>
+      </c>
+      <c r="C112" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>CHATURVEDI NILESH D</v>
+      </c>
+      <c r="B113" t="str">
+        <v>919898381108</v>
+      </c>
+      <c r="C113" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>CHATURVEDI NITU DINESHCHANDRA</v>
+      </c>
+      <c r="B114" t="str">
+        <v>919924420924</v>
+      </c>
+      <c r="C114" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>CHATURVEDI RAJESHKUMAR BIHARILAL</v>
+      </c>
+      <c r="B115" t="str">
+        <v>919825568195</v>
+      </c>
+      <c r="C115" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>CHATURVEDI SATISHCHANDRA VALLABHDAS</v>
+      </c>
+      <c r="B116" t="str">
+        <v>916351376540</v>
+      </c>
+      <c r="C116" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>CHATURVEDI SEEMA SURESHCHANDRA</v>
+      </c>
+      <c r="B117" t="str">
+        <v>919727451295</v>
+      </c>
+      <c r="C117" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>CHATURVEDI SHOBHA SURESHCHANDRA</v>
+      </c>
+      <c r="B118" t="str">
+        <v>919879017127</v>
+      </c>
+      <c r="C118" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>CHAUDHARI BHARATI HARISH</v>
+      </c>
+      <c r="B119" t="str">
+        <v>919898566461</v>
+      </c>
+      <c r="C119" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>CHAUDHARI DAHYABHAI GANESHBHAI</v>
+      </c>
+      <c r="B120" t="str">
+        <v>919327140039</v>
+      </c>
+      <c r="C120" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>CHAUDHARI HEMAKSHIBEN NILKANTHBHAI</v>
+      </c>
+      <c r="B121" t="str">
+        <v>919879414964</v>
+      </c>
+      <c r="C121" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>CHAUDHARI KAVITA GURJIBHAI</v>
+      </c>
+      <c r="B122" t="str">
+        <v>919586047436</v>
+      </c>
+      <c r="C122" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>CHAUDHARI MUKESH JAYSHRIRAM</v>
+      </c>
+      <c r="B123" t="str">
+        <v>919898039910</v>
+      </c>
+      <c r="C123" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>CHAUDHARI RUBINA IRSHADAHMED</v>
+      </c>
+      <c r="B124" t="str">
+        <v>916353509932</v>
+      </c>
+      <c r="C124" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>CHAUDHARY KUMSUMAN SHRAVANKUMAR</v>
+      </c>
+      <c r="B125" t="str">
+        <v>917621820314</v>
+      </c>
+      <c r="C125" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>CHAUDHARY RUBINA IRSHADAHMED</v>
+      </c>
+      <c r="B126" t="str">
+        <v>916353509932</v>
+      </c>
+      <c r="C126" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>CHAUHAN  PRATAPSINH CHANDRASINH</v>
+      </c>
+      <c r="B127" t="str">
+        <v>919825016103</v>
+      </c>
+      <c r="C127" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>CHAUHAN AAKASHI NARENDRASINH</v>
+      </c>
+      <c r="B128" t="str">
+        <v>917874048116</v>
+      </c>
+      <c r="C128" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>CHAUHAN AASHISH NARESHBHAI</v>
+      </c>
+      <c r="B129" t="str">
+        <v>917779010751</v>
+      </c>
+      <c r="C129" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>CHAUHAN AJITKUMAR BAKULBHAI</v>
+      </c>
+      <c r="B130" t="str">
+        <v>919879770611</v>
+      </c>
+      <c r="C130" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>CHAUHAN ALPESH JAYENDRABHAI</v>
+      </c>
+      <c r="B131" t="str">
+        <v>919925804858</v>
+      </c>
+      <c r="C131" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>CHAUHAN ANITABEN KANUBHAI</v>
+      </c>
+      <c r="B132" t="str">
+        <v>919408725212</v>
+      </c>
+      <c r="C132" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>CHAUHAN ANUPAMA JAYKISHAN</v>
+      </c>
+      <c r="B133" t="str">
+        <v>918141650264</v>
+      </c>
+      <c r="C133" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>CHAUHAN ANWARHUSEEN MAHMADBHAI</v>
+      </c>
+      <c r="B134" t="str">
+        <v>919824350660</v>
+      </c>
+      <c r="C134" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>CHAUHAN ASHISH NARESHBHAI</v>
+      </c>
+      <c r="B135" t="str">
+        <v>917779010751</v>
+      </c>
+      <c r="C135" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>CHAUHAN ASHOKSINH KALUSINGHJI</v>
+      </c>
+      <c r="B136" t="str">
+        <v>919376297009</v>
+      </c>
+      <c r="C136" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>CHAUHAN ASHWINI HEMANT</v>
+      </c>
+      <c r="B137" t="str">
+        <v>917567844018</v>
+      </c>
+      <c r="C137" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>CHAUHAN BHAVIN PRAKASHCHANDRA</v>
+      </c>
+      <c r="B138" t="str">
+        <v>919409476418</v>
+      </c>
+      <c r="C138" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>CHAUHAN BHAVNA SHANTILAL</v>
+      </c>
+      <c r="B139" t="str">
+        <v>919426536768</v>
+      </c>
+      <c r="C139" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>CHAUHAN BHUPENDRASINH BHALUBHAI</v>
+      </c>
+      <c r="B140" t="str">
+        <v>916355824131</v>
+      </c>
+      <c r="C140" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>CHAUHAN BHUPENDRASINH NARVATSINH</v>
+      </c>
+      <c r="B141" t="str">
+        <v>918866494260</v>
+      </c>
+      <c r="C141" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>CHAUHAN CHANDRESHKUMAR ARJUNSINH</v>
+      </c>
+      <c r="B142" t="str">
+        <v>919173721202</v>
+      </c>
+      <c r="C142" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>CHAUHAN CHANDUBHAI JAGJIVANDAS</v>
+      </c>
+      <c r="B143" t="str">
+        <v>919825048218</v>
+      </c>
+      <c r="C143" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>CHAUHAN DEEPAKKUMAR KISHANBHAI</v>
+      </c>
+      <c r="B144" t="str">
+        <v>918401626427</v>
+      </c>
+      <c r="C144" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>CHAUHAN DEVENDRASINH VIKRAMBHAI</v>
+      </c>
+      <c r="B145" t="str">
+        <v>919726565505</v>
+      </c>
+      <c r="C145" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>CHAUHAN DEVRAJSINH RATANSINH</v>
+      </c>
+      <c r="B146" t="str">
+        <v>917600145504</v>
+      </c>
+      <c r="C146" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>CHAUHAN DHARMENDRASINH M</v>
+      </c>
+      <c r="B147" t="str">
+        <v>919376239711</v>
+      </c>
+      <c r="C147" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>CHAUHAN DHRUV KIRANBHAI</v>
+      </c>
+      <c r="B148" t="str">
+        <v>916351243261</v>
+      </c>
+      <c r="C148" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>CHAUHAN DIGVIJAYSINH RAJENDRASINH</v>
+      </c>
+      <c r="B149" t="str">
+        <v>919879757585</v>
+      </c>
+      <c r="C149" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>CHAUHAN DIPIKA VIJAYSNH</v>
+      </c>
+      <c r="B150" t="str">
+        <v>918140222384</v>
+      </c>
+      <c r="C150" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>CHAUHAN DIVYABEN GULABSINH</v>
+      </c>
+      <c r="B151" t="str">
+        <v>916351275253</v>
+      </c>
+      <c r="C151" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>CHAUHAN HARSHA SHANTILAL</v>
+      </c>
+      <c r="B152" t="str">
+        <v>919925839099</v>
+      </c>
+      <c r="C152" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>CHAUHAN HEMLATA NARANBHAI</v>
+      </c>
+      <c r="B153" t="str">
+        <v>919624641813</v>
+      </c>
+      <c r="C153" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>CHAUHAN HEMLATTA NARANBHAI</v>
+      </c>
+      <c r="B154" t="str">
+        <v>919624641813</v>
+      </c>
+      <c r="C154" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>CHAUHAN HIMANSHU HIRENKUMAR</v>
+      </c>
+      <c r="B155" t="str">
+        <v>918866846425</v>
+      </c>
+      <c r="C155" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Chauhan Hinal Shailendra</v>
+      </c>
+      <c r="B156" t="str">
+        <v>918200628292</v>
+      </c>
+      <c r="C156" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>CHAUHAN HITASVI THAKORBHAI</v>
+      </c>
+      <c r="B157" t="str">
+        <v>917048646423</v>
+      </c>
+      <c r="C157" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>CHAUHAN INDIRA SURENDRABHAI</v>
+      </c>
+      <c r="B158" t="str">
+        <v>919511895882</v>
+      </c>
+      <c r="C158" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>CHAUHAN JASHODABEN RAMANBHAI</v>
+      </c>
+      <c r="B159" t="str">
+        <v>919898370219</v>
+      </c>
+      <c r="C159" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>CHAUHAN JATINKUMAR JASVANTBHAI</v>
+      </c>
+      <c r="B160" t="str">
+        <v>918758847463</v>
+      </c>
+      <c r="C160" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>CHAUHAN JAY VIJAY</v>
+      </c>
+      <c r="B161" t="str">
+        <v>917778944337</v>
+      </c>
+      <c r="C161" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>CHAUHAN JIGISHA VIJAYSINH</v>
+      </c>
+      <c r="B162" t="str">
+        <v>919624070279</v>
+      </c>
+      <c r="C162" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>CHAUHAN JIGNESHKUMAR ARUNSINH</v>
+      </c>
+      <c r="B163" t="str">
+        <v>919879299688</v>
+      </c>
+      <c r="C163" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>CHAUHAN KAILASH RAMSINH</v>
+      </c>
+      <c r="B164" t="str">
+        <v>918140800740</v>
+      </c>
+      <c r="C164" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>CHAUHAN KALPESH KALIDAS</v>
+      </c>
+      <c r="B165" t="str">
+        <v>917600110216</v>
+      </c>
+      <c r="C165" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>CHAUHAN KASAMBHAI SALIMBHAI</v>
+      </c>
+      <c r="B166" t="str">
+        <v>919157573248</v>
+      </c>
+      <c r="C166" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>CHAUHAN KINJAL NARESH</v>
+      </c>
+      <c r="B167" t="str">
+        <v>919722991293</v>
+      </c>
+      <c r="C167" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>CHAUHAN KUNALSINH MOHANSINH</v>
+      </c>
+      <c r="B168" t="str">
+        <v>919979563300</v>
+      </c>
+      <c r="C168" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>CHAUHAN MAHENDRASINH DOLATSINH</v>
+      </c>
+      <c r="B169" t="str">
+        <v>919227123555</v>
+      </c>
+      <c r="C169" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>CHAUHAN MAHESH DAYARAM</v>
+      </c>
+      <c r="B170" t="str">
+        <v>919429828303</v>
+      </c>
+      <c r="C170" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>CHAUHAN MANISHKUMAR VASANTBHAI</v>
+      </c>
+      <c r="B171" t="str">
+        <v>919998976822</v>
+      </c>
+      <c r="C171" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>CHAUHAN MUKESHBHAI GOVINDBHAI</v>
+      </c>
+      <c r="B172" t="str">
+        <v>919879595027</v>
+      </c>
+      <c r="C172" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>CHAUHAN NARENKUMAR KHUMANSINH</v>
+      </c>
+      <c r="B173" t="str">
+        <v>919429254443</v>
+      </c>
+      <c r="C173" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>CHAUHAN NIRMAL DIPAKBHAI</v>
+      </c>
+      <c r="B174" t="str">
+        <v>917600367155</v>
+      </c>
+      <c r="C174" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>CHAUHAN NITESH VIRABHAI</v>
+      </c>
+      <c r="B175" t="str">
+        <v>918980780487</v>
+      </c>
+      <c r="C175" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>CHAUHAN PARESHKUMAR CHHATRASINH</v>
+      </c>
+      <c r="B176" t="str">
+        <v>919825904807</v>
+      </c>
+      <c r="C176" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>CHAUHAN PIYUSHKUMAR MOTISINH</v>
+      </c>
+      <c r="B177" t="str">
+        <v>919574069580</v>
+      </c>
+      <c r="C177" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>CHAUHAN PURVISHA DHANESHCHANDRA</v>
+      </c>
+      <c r="B178" t="str">
+        <v>919426329771</v>
+      </c>
+      <c r="C178" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>CHAUHAN RAHULKUMAR SHAILESHKUMAR</v>
+      </c>
+      <c r="B179" t="str">
+        <v>916352360073</v>
+      </c>
+      <c r="C179" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>CHAUHAN RAMSINH SHANABHAI</v>
+      </c>
+      <c r="B180" t="str">
+        <v>919824797671</v>
+      </c>
+      <c r="C180" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>CHAUHAN RANJITSINH KALUSINH</v>
+      </c>
+      <c r="B181" t="str">
+        <v>919974737580</v>
+      </c>
+      <c r="C181" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>CHAUHAN REKHABEN VITTHALBHAI</v>
+      </c>
+      <c r="B182" t="str">
+        <v>919687007927</v>
+      </c>
+      <c r="C182" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>CHAUHAN RIDDHI NAVINCHANDRA</v>
+      </c>
+      <c r="B183" t="str">
+        <v>918758107748</v>
+      </c>
+      <c r="C183" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>CHAUHAN SADDAMHUSSAIN ANVARBHAI</v>
+      </c>
+      <c r="B184" t="str">
+        <v>917359537097</v>
+      </c>
+      <c r="C184" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>CHAUHAN SANGRAMSINH PRATAPSINH</v>
+      </c>
+      <c r="B185" t="str">
+        <v>919376242696</v>
+      </c>
+      <c r="C185" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>CHAUHAN SANJAY HUKAMCHAND</v>
+      </c>
+      <c r="B186" t="str">
+        <v>919913039695</v>
+      </c>
+      <c r="C186" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>CHAUHAN SAURAVKUMAR DHIRUBHAI</v>
+      </c>
+      <c r="B187" t="str">
+        <v>917202045630</v>
+      </c>
+      <c r="C187" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>CHAUHAN SHAHRUKHKHAN RAMANBHAI</v>
+      </c>
+      <c r="B188" t="str">
+        <v>917600675851</v>
+      </c>
+      <c r="C188" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>CHAUHAN SMRUTI GOVINDBHAI</v>
+      </c>
+      <c r="B189" t="str">
+        <v>919925017440</v>
+      </c>
+      <c r="C189" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>CHAUHAN SUNIL ATMARAM</v>
+      </c>
+      <c r="B190" t="str">
+        <v>919904236451</v>
+      </c>
+      <c r="C190" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>CHAUHAN SUSHILADEVI NARESHSINH</v>
+      </c>
+      <c r="B191" t="str">
+        <v>919374610878</v>
+      </c>
+      <c r="C191" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>CHAUHAN UMESHBHAI CHATURBHAI</v>
+      </c>
+      <c r="B192" t="str">
+        <v>919624834985</v>
+      </c>
+      <c r="C192" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>CHAUHAN URVI KARAN</v>
+      </c>
+      <c r="B193" t="str">
+        <v>918586375294</v>
+      </c>
+      <c r="C193" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>CHAUHAN VARSHABEN PRUTHVISINH</v>
+      </c>
+      <c r="B194" t="str">
+        <v>919601270171</v>
+      </c>
+      <c r="C194" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>CHAUHAN VIDHIBEN DILIPKUMAR</v>
+      </c>
+      <c r="B195" t="str">
+        <v>919099922452</v>
+      </c>
+      <c r="C195" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>CHAUHAN VIJAYKUMAR RATILAL</v>
+      </c>
+      <c r="B196" t="str">
+        <v>919824523011</v>
+      </c>
+      <c r="C196" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>CHAUHAN VIMALKUMAR VALJIBHAI</v>
+      </c>
+      <c r="B197" t="str">
+        <v>919558819714</v>
+      </c>
+      <c r="C197" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>CHAUHAN VIRAL KAUSHIKKUMAR</v>
+      </c>
+      <c r="B198" t="str">
+        <v>919974774923</v>
+      </c>
+      <c r="C198" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>CHAUHAN VISHALKUMAR JASHVANTBHAI</v>
+      </c>
+      <c r="B199" t="str">
+        <v>917096759721</v>
+      </c>
+      <c r="C199" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>CHAVAN YASHDEEP MANOHARBHAI</v>
+      </c>
+      <c r="B200" t="str">
+        <v>918401469696</v>
+      </c>
+      <c r="C200" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>CHAVDA ANILKUMAR AJITSINH</v>
+      </c>
+      <c r="B201" t="str">
+        <v>918128888082</v>
+      </c>
+      <c r="C201" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>CHAVDA BHAILALBHAI ISHWARBHAI</v>
+      </c>
+      <c r="B202" t="str">
+        <v>919898031165</v>
+      </c>
+      <c r="C202" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>CHAVDA BHAVIKA BHAILALBHAI</v>
+      </c>
+      <c r="B203" t="str">
+        <v>919662745120</v>
+      </c>
+      <c r="C203" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>CHAVDA DIVYA RAJESHKUMAR</v>
+      </c>
+      <c r="B204" t="str">
+        <v>919979748767</v>
+      </c>
+      <c r="C204" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>CHAVDA GEETA BABUBHAI</v>
+      </c>
+      <c r="B205" t="str">
+        <v>919974525870</v>
+      </c>
+      <c r="C205" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>CHAVDA HARSHAD DINESHBHAI</v>
+      </c>
+      <c r="B206" t="str">
+        <v>919725052235</v>
+      </c>
+      <c r="C206" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>CHAVDA HARSHADBHAI SHANABHAI</v>
+      </c>
+      <c r="B207" t="str">
+        <v>919924924944</v>
+      </c>
+      <c r="C207" t="str">
+        <v>message not sent</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>600 message</v>
+      </c>
+      <c r="B208" t="str">
+        <v>918460626019</v>
+      </c>
+      <c r="C208" t="str">
+        <v>message not sent</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C208"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AGRAWAL MEGHA ADESHCHANDRA</v>
+        <v>DASS SUSHIL RAMCHARAN</v>
       </c>
       <c r="B2" t="str">
-        <v>919377993445</v>
+        <v>919825054104</v>
       </c>
       <c r="C2" t="str">
         <v>not registered on whatsapp</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>AHUJA GURUBACHANSINGH  KARTARSINGH</v>
+        <v>DAVE ANANRAI MOHANLAL</v>
       </c>
       <c r="B3" t="str">
-        <v>919638473203</v>
+        <v>919925017697</v>
       </c>
       <c r="C3" t="str">
         <v>not registered on whatsapp</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ALPANA YAGNESH BAKTARWALA</v>
+        <v>DAVE DEVYANI RAMANLAL</v>
       </c>
       <c r="B4" t="str">
-        <v>919998909286</v>
+        <v>919427374047</v>
       </c>
       <c r="C4" t="str">
         <v>not registered on whatsapp</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>AMIN DHIRUBHAI KANTIBHAI</v>
+        <v>DAVE KRUTI DILIPKUMAR</v>
       </c>
       <c r="B5" t="str">
-        <v>919909007800</v>
+        <v>918866686281</v>
       </c>
       <c r="C5" t="str">
         <v>not registered on whatsapp</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>AMIN PRATIKSHA BIPINCHANDRA</v>
+        <v>DAVE SHARADCHANDRA KANUBHAI</v>
       </c>
       <c r="B6" t="str">
-        <v>918511121054</v>
+        <v>919429036586</v>
       </c>
       <c r="C6" t="str">
         <v>not registered on whatsapp</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>ARORA SHIVANGINIBEN MUKESHBHAI</v>
+        <v>DESAI HITENDRA HARISHBHAI</v>
       </c>
       <c r="B7" t="str">
-        <v>918347565504</v>
+        <v>919033866505</v>
       </c>
       <c r="C7" t="str">
         <v>not registered on whatsapp</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>ATTARWALA MOHAMMEDSOHIL SAEEDAHMED</v>
+        <v>DESAI JAYESHKUMA GOKULDAS</v>
       </c>
       <c r="B8" t="str">
-        <v>918401886087</v>
+        <v>919978027141</v>
       </c>
       <c r="C8" t="str">
         <v>not registered on whatsapp</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>BAKTARWALA ALPANA YAGNESH</v>
+        <v>DESAI NAYAN BHARATBHAI</v>
       </c>
       <c r="B9" t="str">
-        <v>919998909286</v>
+        <v>919033471587</v>
       </c>
       <c r="C9" t="str">
         <v>not registered on whatsapp</v>
@@ -503,18 +503,62 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>BALOLIA PALVISH KARSANBHAI</v>
+        <v>DESAI SURENDRAKUMAR GORDHANDAS</v>
       </c>
       <c r="B10" t="str">
-        <v>917874302909</v>
+        <v>919327456650</v>
       </c>
       <c r="C10" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>DESAI ZARANA SHUSHILKUMAR</v>
+      </c>
+      <c r="B11" t="str">
+        <v>918320341587</v>
+      </c>
+      <c r="C11" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>DESHMUKH ASHWANI RAMRAO</v>
+      </c>
+      <c r="B12" t="str">
+        <v>918427973047</v>
+      </c>
+      <c r="C12" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>DESHMUKH HEMANT VINAYAKRAO</v>
+      </c>
+      <c r="B13" t="str">
+        <v>919924295772</v>
+      </c>
+      <c r="C13" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>DHALWANI SARLA DAYALDAS</v>
+      </c>
+      <c r="B14" t="str">
+        <v>919723506273</v>
+      </c>
+      <c r="C14" t="str">
         <v>not registered on whatsapp</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>DASS SUSHIL RAMCHARAN</v>
+        <v>DHARMADHIKARI MINAL PUSHKAR</v>
       </c>
       <c r="B2" t="str">
-        <v>919825054104</v>
+        <v>919427849377</v>
       </c>
       <c r="C2" t="str">
         <v>not registered on whatsapp</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DAVE ANANRAI MOHANLAL</v>
+        <v>DHARNADASAN T A</v>
       </c>
       <c r="B3" t="str">
-        <v>919925017697</v>
+        <v>919446491961</v>
       </c>
       <c r="C3" t="str">
         <v>not registered on whatsapp</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>DAVE DEVYANI RAMANLAL</v>
+        <v>DHOBI VINUBHAI CHANDUBHAI</v>
       </c>
       <c r="B4" t="str">
-        <v>919427374047</v>
+        <v>919898363715</v>
       </c>
       <c r="C4" t="str">
         <v>not registered on whatsapp</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>DAVE KRUTI DILIPKUMAR</v>
+        <v>DIWANJEE ANKIT NAYAN</v>
       </c>
       <c r="B5" t="str">
-        <v>918866686281</v>
+        <v>919427857526</v>
       </c>
       <c r="C5" t="str">
         <v>not registered on whatsapp</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>DAVE SHARADCHANDRA KANUBHAI</v>
+        <v>DIWANJI SHWETANG NIRANJANBHAI</v>
       </c>
       <c r="B6" t="str">
-        <v>919429036586</v>
+        <v>919998034011</v>
       </c>
       <c r="C6" t="str">
         <v>not registered on whatsapp</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>DESAI HITENDRA HARISHBHAI</v>
+        <v>DODIYA PRANJALBEN MAHENDRASINH</v>
       </c>
       <c r="B7" t="str">
-        <v>919033866505</v>
+        <v>919328667760</v>
       </c>
       <c r="C7" t="str">
         <v>not registered on whatsapp</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>DESAI JAYESHKUMA GOKULDAS</v>
+        <v>DONGARE RANJANA VIKRAM</v>
       </c>
       <c r="B8" t="str">
-        <v>919978027141</v>
+        <v>919275038191</v>
       </c>
       <c r="C8" t="str">
         <v>not registered on whatsapp</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>DESAI NAYAN BHARATBHAI</v>
+        <v>DOSHI SAMIR PREMKUMAR</v>
       </c>
       <c r="B9" t="str">
-        <v>919033471587</v>
+        <v>916359562718</v>
       </c>
       <c r="C9" t="str">
         <v>not registered on whatsapp</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>DESAI SURENDRAKUMAR GORDHANDAS</v>
+        <v>DUDHWALA NAIMBABA GULAMRASUL</v>
       </c>
       <c r="B10" t="str">
-        <v>919327456650</v>
+        <v>919824075780</v>
       </c>
       <c r="C10" t="str">
         <v>not registered on whatsapp</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>DESAI ZARANA SHUSHILKUMAR</v>
+        <v>DUDHWALA RAMESHCHANDRA KANTILAL</v>
       </c>
       <c r="B11" t="str">
-        <v>918320341587</v>
+        <v>919825324258</v>
       </c>
       <c r="C11" t="str">
         <v>not registered on whatsapp</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>DESHMUKH ASHWANI RAMRAO</v>
+        <v>DULLA SAROJ DALPATRAM</v>
       </c>
       <c r="B12" t="str">
-        <v>918427973047</v>
+        <v>919408380150</v>
       </c>
       <c r="C12" t="str">
         <v>not registered on whatsapp</v>
@@ -536,29 +536,18 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>DESHMUKH HEMANT VINAYAKRAO</v>
+        <v>GAMIT SANJAYKUMAR ARJUNBHAI</v>
       </c>
       <c r="B13" t="str">
-        <v>919924295772</v>
+        <v>919426416476</v>
       </c>
       <c r="C13" t="str">
-        <v>not registered on whatsapp</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>DHALWANI SARLA DAYALDAS</v>
-      </c>
-      <c r="B14" t="str">
-        <v>919723506273</v>
-      </c>
-      <c r="C14" t="str">
         <v>not registered on whatsapp</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>DHARMADHIKARI MINAL PUSHKAR</v>
+        <v>GANDHI DEEP JAYESH</v>
       </c>
       <c r="B2" t="str">
-        <v>919427849377</v>
+        <v>919428733885</v>
       </c>
       <c r="C2" t="str">
         <v>not registered on whatsapp</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>DHARNADASAN T A</v>
+        <v>GANDHI ISHVARLAL RAMBHAI</v>
       </c>
       <c r="B3" t="str">
-        <v>919446491961</v>
+        <v>919879142454</v>
       </c>
       <c r="C3" t="str">
         <v>not registered on whatsapp</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>DHOBI VINUBHAI CHANDUBHAI</v>
+        <v>GANDHI PINALBEN NIRAVKUMAR</v>
       </c>
       <c r="B4" t="str">
-        <v>919898363715</v>
+        <v>919427218930</v>
       </c>
       <c r="C4" t="str">
         <v>not registered on whatsapp</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>DIWANJEE ANKIT NAYAN</v>
+        <v>GANDHI VIREN AJITBHAI</v>
       </c>
       <c r="B5" t="str">
-        <v>919427857526</v>
+        <v>919825316310</v>
       </c>
       <c r="C5" t="str">
         <v>not registered on whatsapp</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>DIWANJI SHWETANG NIRANJANBHAI</v>
+        <v>GARASIYA ZAKIR HUSSAIN ABDULBHAI</v>
       </c>
       <c r="B6" t="str">
-        <v>919998034011</v>
+        <v>919429113320</v>
       </c>
       <c r="C6" t="str">
         <v>not registered on whatsapp</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>DODIYA PRANJALBEN MAHENDRASINH</v>
+        <v>GELOD VARSHA SUBHASHBHAI</v>
       </c>
       <c r="B7" t="str">
-        <v>919328667760</v>
+        <v>918460457385</v>
       </c>
       <c r="C7" t="str">
         <v>not registered on whatsapp</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>DONGARE RANJANA VIKRAM</v>
+        <v>GHAG UPSANA RAGHAVNATH</v>
       </c>
       <c r="B8" t="str">
-        <v>919275038191</v>
+        <v>917600672673</v>
       </c>
       <c r="C8" t="str">
         <v>not registered on whatsapp</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>DOSHI SAMIR PREMKUMAR</v>
+        <v>GHANCHI SHABBIRBHAI RAJUBHAI</v>
       </c>
       <c r="B9" t="str">
-        <v>916359562718</v>
+        <v>919033502280</v>
       </c>
       <c r="C9" t="str">
         <v>not registered on whatsapp</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>DUDHWALA NAIMBABA GULAMRASUL</v>
+        <v>Ghandi Deep Jayesh</v>
       </c>
       <c r="B10" t="str">
-        <v>919824075780</v>
+        <v>919428733885</v>
       </c>
       <c r="C10" t="str">
         <v>not registered on whatsapp</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>DUDHWALA RAMESHCHANDRA KANTILAL</v>
+        <v>GHARPURE SHRIRANG DATTATRAYA</v>
       </c>
       <c r="B11" t="str">
-        <v>919825324258</v>
+        <v>919724208244</v>
       </c>
       <c r="C11" t="str">
         <v>not registered on whatsapp</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>DULLA SAROJ DALPATRAM</v>
+        <v>GOHEL HEENA VALLABHBHAI</v>
       </c>
       <c r="B12" t="str">
-        <v>919408380150</v>
+        <v>919998163506</v>
       </c>
       <c r="C12" t="str">
         <v>not registered on whatsapp</v>
@@ -536,18 +536,205 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>GAMIT SANJAYKUMAR ARJUNBHAI</v>
+        <v>GOHIL CHHGANBHAI DUDHABHAI</v>
       </c>
       <c r="B13" t="str">
-        <v>919426416476</v>
+        <v>919426861602</v>
       </c>
       <c r="C13" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>GOHIL GOVINDBHAI RAVJIBHAI</v>
+      </c>
+      <c r="B14" t="str">
+        <v>919979301537</v>
+      </c>
+      <c r="C14" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>GOHIL HITENDRAKUMAR FATESINH</v>
+      </c>
+      <c r="B15" t="str">
+        <v>919712145109</v>
+      </c>
+      <c r="C15" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>GOHIL NIMISHA RAJESHKUMAR</v>
+      </c>
+      <c r="B16" t="str">
+        <v>917383788505</v>
+      </c>
+      <c r="C16" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>GOHIL SHAILESHKUMAR A</v>
+      </c>
+      <c r="B17" t="str">
+        <v>919427592718</v>
+      </c>
+      <c r="C17" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>GORIA HASMUKH AMBALAL</v>
+      </c>
+      <c r="B18" t="str">
+        <v>919879129270</v>
+      </c>
+      <c r="C18" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>GOSAI DIPIKABEN KIRANGIRI</v>
+      </c>
+      <c r="B19" t="str">
+        <v>919275225124</v>
+      </c>
+      <c r="C19" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>GOSWAMI MANISHKUMAR KANCHANBHAI</v>
+      </c>
+      <c r="B20" t="str">
+        <v>919998106336</v>
+      </c>
+      <c r="C20" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>GUPTA MADANKUMAR SINGH</v>
+      </c>
+      <c r="B21" t="str">
+        <v>918376023014</v>
+      </c>
+      <c r="C21" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>GUPTA RESHU RAJESHKUMAR</v>
+      </c>
+      <c r="B22" t="str">
+        <v>918866104928</v>
+      </c>
+      <c r="C22" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>HADPAD MANJULA CHIDANAND</v>
+      </c>
+      <c r="B23" t="str">
+        <v>919723048949</v>
+      </c>
+      <c r="C23" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>HAKIM FAHIM MOHAMMED RAZAK</v>
+      </c>
+      <c r="B24" t="str">
+        <v>919913340445</v>
+      </c>
+      <c r="C24" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>HAROSHI IMRAN JAHUBHAI</v>
+      </c>
+      <c r="B25" t="str">
+        <v>919426565302</v>
+      </c>
+      <c r="C25" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>HARPALE NIRMALA BABURAO</v>
+      </c>
+      <c r="B26" t="str">
+        <v>919408347456</v>
+      </c>
+      <c r="C26" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>HARPALE TANVI MANOJ</v>
+      </c>
+      <c r="B27" t="str">
+        <v>916353823907</v>
+      </c>
+      <c r="C27" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>INTWALA HITESHKUMAR KANTILAL</v>
+      </c>
+      <c r="B28" t="str">
+        <v>919424320284</v>
+      </c>
+      <c r="C28" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>JADAV BHAVIN DAHYABHAI</v>
+      </c>
+      <c r="B29" t="str">
+        <v>919426411824</v>
+      </c>
+      <c r="C29" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>JADAV MINAXIBEN KARSANBHAI</v>
+      </c>
+      <c r="B30" t="str">
+        <v>919016359816</v>
+      </c>
+      <c r="C30" t="str">
         <v>not registered on whatsapp</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>GANDHI DEEP JAYESH</v>
+        <v>PANDYA YESHABEN DIPAKBHAI</v>
       </c>
       <c r="B2" t="str">
-        <v>919428733885</v>
+        <v>918401222475</v>
       </c>
       <c r="C2" t="str">
         <v>not registered on whatsapp</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>GANDHI ISHVARLAL RAMBHAI</v>
+        <v>PANJWANI MANOJ RADHAKRISHNA</v>
       </c>
       <c r="B3" t="str">
-        <v>919879142454</v>
+        <v>919925949662</v>
       </c>
       <c r="C3" t="str">
         <v>not registered on whatsapp</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>GANDHI PINALBEN NIRAVKUMAR</v>
+        <v>PANJWANI RADHAKRISHNA SAKHAWATRAI</v>
       </c>
       <c r="B4" t="str">
-        <v>919427218930</v>
+        <v>919825318312</v>
       </c>
       <c r="C4" t="str">
         <v>not registered on whatsapp</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>GANDHI VIREN AJITBHAI</v>
+        <v>PARAKHIYA JASHVANTSINH KALUSINH</v>
       </c>
       <c r="B5" t="str">
-        <v>919825316310</v>
+        <v>919638373677</v>
       </c>
       <c r="C5" t="str">
         <v>not registered on whatsapp</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>GARASIYA ZAKIR HUSSAIN ABDULBHAI</v>
+        <v>PAREKH LANCY A</v>
       </c>
       <c r="B6" t="str">
-        <v>919429113320</v>
+        <v>919327397134</v>
       </c>
       <c r="C6" t="str">
         <v>not registered on whatsapp</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>GELOD VARSHA SUBHASHBHAI</v>
+        <v>PAREKH SHRIRAM PUNJABHAI</v>
       </c>
       <c r="B7" t="str">
-        <v>918460457385</v>
+        <v>919898045523</v>
       </c>
       <c r="C7" t="str">
         <v>not registered on whatsapp</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>GHAG UPSANA RAGHAVNATH</v>
+        <v>PARIKH JAYENDRABHAI PUNAMCHAND</v>
       </c>
       <c r="B8" t="str">
-        <v>917600672673</v>
+        <v>919601963196</v>
       </c>
       <c r="C8" t="str">
         <v>not registered on whatsapp</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>GHANCHI SHABBIRBHAI RAJUBHAI</v>
+        <v>PARIKH KAUSHAL ARUN</v>
       </c>
       <c r="B9" t="str">
-        <v>919033502280</v>
+        <v>919724988942</v>
       </c>
       <c r="C9" t="str">
         <v>not registered on whatsapp</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Ghandi Deep Jayesh</v>
+        <v>PARIKH PARULBEN HEMANTKUMAR</v>
       </c>
       <c r="B10" t="str">
-        <v>919428733885</v>
+        <v>919429255468</v>
       </c>
       <c r="C10" t="str">
         <v>not registered on whatsapp</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>GHARPURE SHRIRANG DATTATRAYA</v>
+        <v>PARIKH VINODCHANDRA MULJIBHAI</v>
       </c>
       <c r="B11" t="str">
-        <v>919724208244</v>
+        <v>919825042191</v>
       </c>
       <c r="C11" t="str">
         <v>not registered on whatsapp</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>GOHEL HEENA VALLABHBHAI</v>
+        <v>PARMAR ARUNA GANPATBHAI</v>
       </c>
       <c r="B12" t="str">
-        <v>919998163506</v>
+        <v>919898244046</v>
       </c>
       <c r="C12" t="str">
         <v>not registered on whatsapp</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>GOHIL CHHGANBHAI DUDHABHAI</v>
+        <v>PARMAR BHARATKUMAR TRIBHOVANDAS</v>
       </c>
       <c r="B13" t="str">
-        <v>919426861602</v>
+        <v>919825152775</v>
       </c>
       <c r="C13" t="str">
         <v>not registered on whatsapp</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>GOHIL GOVINDBHAI RAVJIBHAI</v>
+        <v>PARMAR BHARATSINH CHANDRASINH</v>
       </c>
       <c r="B14" t="str">
-        <v>919979301537</v>
+        <v>919376234004</v>
       </c>
       <c r="C14" t="str">
         <v>not registered on whatsapp</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>GOHIL HITENDRAKUMAR FATESINH</v>
+        <v>PARMAR BHAVESHKUMAR CHATURBHAI</v>
       </c>
       <c r="B15" t="str">
-        <v>919712145109</v>
+        <v>918849528143</v>
       </c>
       <c r="C15" t="str">
         <v>not registered on whatsapp</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>GOHIL NIMISHA RAJESHKUMAR</v>
+        <v>PARMAR BHAVIKABEN MOHANBHAI</v>
       </c>
       <c r="B16" t="str">
-        <v>917383788505</v>
+        <v>919265544234</v>
       </c>
       <c r="C16" t="str">
         <v>not registered on whatsapp</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>GOHIL SHAILESHKUMAR A</v>
+        <v>PARMAR BINDUBEN DIPAK</v>
       </c>
       <c r="B17" t="str">
-        <v>919427592718</v>
+        <v>918155837947</v>
       </c>
       <c r="C17" t="str">
         <v>not registered on whatsapp</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>GORIA HASMUKH AMBALAL</v>
+        <v xml:space="preserve">PARMAR CHETAN VIRAMBHAI </v>
       </c>
       <c r="B18" t="str">
-        <v>919879129270</v>
+        <v>919879404618</v>
       </c>
       <c r="C18" t="str">
         <v>not registered on whatsapp</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>GOSAI DIPIKABEN KIRANGIRI</v>
+        <v>PARMAR DHARMENDRAKUMAR RAMANLAL</v>
       </c>
       <c r="B19" t="str">
-        <v>919275225124</v>
+        <v>919879530176</v>
       </c>
       <c r="C19" t="str">
         <v>not registered on whatsapp</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>GOSWAMI MANISHKUMAR KANCHANBHAI</v>
+        <v>PARMAR DUSHYANT MAHIPATSINH</v>
       </c>
       <c r="B20" t="str">
-        <v>919998106336</v>
+        <v>916354086822</v>
       </c>
       <c r="C20" t="str">
         <v>not registered on whatsapp</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>GUPTA MADANKUMAR SINGH</v>
+        <v>PARMAR HAREKRISHNA SHANKARBHAI</v>
       </c>
       <c r="B21" t="str">
-        <v>918376023014</v>
+        <v>919925831699</v>
       </c>
       <c r="C21" t="str">
         <v>not registered on whatsapp</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>GUPTA RESHU RAJESHKUMAR</v>
+        <v>PARMAR HARSHADBHAI MANUBHAI</v>
       </c>
       <c r="B22" t="str">
-        <v>918866104928</v>
+        <v>917874038911</v>
       </c>
       <c r="C22" t="str">
         <v>not registered on whatsapp</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>HADPAD MANJULA CHIDANAND</v>
+        <v>PARMAR HEENABEN MAHESHBHAI</v>
       </c>
       <c r="B23" t="str">
-        <v>919723048949</v>
+        <v>919662016110</v>
       </c>
       <c r="C23" t="str">
         <v>not registered on whatsapp</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>HAKIM FAHIM MOHAMMED RAZAK</v>
+        <v>PARMAR HETAL DEVAJIBHAI</v>
       </c>
       <c r="B24" t="str">
-        <v>919913340445</v>
+        <v>918153041909</v>
       </c>
       <c r="C24" t="str">
         <v>not registered on whatsapp</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>HAROSHI IMRAN JAHUBHAI</v>
+        <v>PARMAR JAGRUTI MAHESHKUMAR</v>
       </c>
       <c r="B25" t="str">
-        <v>919426565302</v>
+        <v>917359745575</v>
       </c>
       <c r="C25" t="str">
         <v>not registered on whatsapp</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>HARPALE NIRMALA BABURAO</v>
+        <v>PARMAR JAYESHBHAI RANCHHODBHAI</v>
       </c>
       <c r="B26" t="str">
-        <v>919408347456</v>
+        <v>919724037392</v>
       </c>
       <c r="C26" t="str">
         <v>not registered on whatsapp</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>HARPALE TANVI MANOJ</v>
+        <v>PARMAR JIGNESHKUMAR JASHBHAI</v>
       </c>
       <c r="B27" t="str">
-        <v>916353823907</v>
+        <v>919898632212</v>
       </c>
       <c r="C27" t="str">
         <v>not registered on whatsapp</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>INTWALA HITESHKUMAR KANTILAL</v>
+        <v>PARMAR KAMLESHKUMAR KHANABHAI</v>
       </c>
       <c r="B28" t="str">
-        <v>919424320284</v>
+        <v>919429111611</v>
       </c>
       <c r="C28" t="str">
         <v>not registered on whatsapp</v>
@@ -712,29 +712,18 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>JADAV BHAVIN DAHYABHAI</v>
+        <v>PARMAR KANTILAL MAKANDAS</v>
       </c>
       <c r="B29" t="str">
-        <v>919426411824</v>
+        <v>919909910382</v>
       </c>
       <c r="C29" t="str">
-        <v>not registered on whatsapp</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>JADAV MINAXIBEN KARSANBHAI</v>
-      </c>
-      <c r="B30" t="str">
-        <v>919016359816</v>
-      </c>
-      <c r="C30" t="str">
         <v>not registered on whatsapp</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C29"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PANDYA YESHABEN DIPAKBHAI</v>
+        <v>PARMAR KOKILABEN BHIKHABHAI</v>
       </c>
       <c r="B2" t="str">
-        <v>918401222475</v>
+        <v>919033449876</v>
       </c>
       <c r="C2" t="str">
         <v>not registered on whatsapp</v>
@@ -426,10 +426,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PANJWANI MANOJ RADHAKRISHNA</v>
+        <v>PARMAR MAHENDRABHAI JAGDISHBHAI</v>
       </c>
       <c r="B3" t="str">
-        <v>919925949662</v>
+        <v>919537218565</v>
       </c>
       <c r="C3" t="str">
         <v>not registered on whatsapp</v>
@@ -437,10 +437,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>PANJWANI RADHAKRISHNA SAKHAWATRAI</v>
+        <v>PARMAR MAHESHKUMAR NARSINHBHAI</v>
       </c>
       <c r="B4" t="str">
-        <v>919825318312</v>
+        <v>919925481255</v>
       </c>
       <c r="C4" t="str">
         <v>not registered on whatsapp</v>
@@ -448,10 +448,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>PARAKHIYA JASHVANTSINH KALUSINH</v>
+        <v>PARMAR MITHABHAI  DALABHAI</v>
       </c>
       <c r="B5" t="str">
-        <v>919638373677</v>
+        <v>919427153664</v>
       </c>
       <c r="C5" t="str">
         <v>not registered on whatsapp</v>
@@ -459,10 +459,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>PAREKH LANCY A</v>
+        <v>PARMAR MONIKA NIRAV</v>
       </c>
       <c r="B6" t="str">
-        <v>919327397134</v>
+        <v>919687052137</v>
       </c>
       <c r="C6" t="str">
         <v>not registered on whatsapp</v>
@@ -470,10 +470,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>PAREKH SHRIRAM PUNJABHAI</v>
+        <v>PARMAR NAYANABEN ASHOKBHAI</v>
       </c>
       <c r="B7" t="str">
-        <v>919898045523</v>
+        <v>919067107213</v>
       </c>
       <c r="C7" t="str">
         <v>not registered on whatsapp</v>
@@ -481,10 +481,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>PARIKH JAYENDRABHAI PUNAMCHAND</v>
+        <v>PARMAR NILENDU DAYASHANKAR</v>
       </c>
       <c r="B8" t="str">
-        <v>919601963196</v>
+        <v>919428402525</v>
       </c>
       <c r="C8" t="str">
         <v>not registered on whatsapp</v>
@@ -492,10 +492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>PARIKH KAUSHAL ARUN</v>
+        <v>PARMAR NIRMALABEN BALVANTRAY</v>
       </c>
       <c r="B9" t="str">
-        <v>919724988942</v>
+        <v>919824970614</v>
       </c>
       <c r="C9" t="str">
         <v>not registered on whatsapp</v>
@@ -503,10 +503,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>PARIKH PARULBEN HEMANTKUMAR</v>
+        <v>PARMAR PANNABEN JARVATSINH</v>
       </c>
       <c r="B10" t="str">
-        <v>919429255468</v>
+        <v>917486882821</v>
       </c>
       <c r="C10" t="str">
         <v>not registered on whatsapp</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>PARIKH VINODCHANDRA MULJIBHAI</v>
+        <v>PARMAR PINALBEN SURESHBHAI</v>
       </c>
       <c r="B11" t="str">
-        <v>919825042191</v>
+        <v>919016860653</v>
       </c>
       <c r="C11" t="str">
         <v>not registered on whatsapp</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>PARMAR ARUNA GANPATBHAI</v>
+        <v>PARMAR RAJNIKANT MATHURBHAI</v>
       </c>
       <c r="B12" t="str">
-        <v>919898244046</v>
+        <v>919712445526</v>
       </c>
       <c r="C12" t="str">
         <v>not registered on whatsapp</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>PARMAR BHARATKUMAR TRIBHOVANDAS</v>
+        <v xml:space="preserve">PARMAR SAFAL NARENDRAKUMAR </v>
       </c>
       <c r="B13" t="str">
-        <v>919825152775</v>
+        <v>919825025031</v>
       </c>
       <c r="C13" t="str">
         <v>not registered on whatsapp</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>PARMAR BHARATSINH CHANDRASINH</v>
+        <v>PARMAR SEJAL LALITBHAI</v>
       </c>
       <c r="B14" t="str">
-        <v>919376234004</v>
+        <v>919099538111</v>
       </c>
       <c r="C14" t="str">
         <v>not registered on whatsapp</v>
@@ -558,10 +558,10 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>PARMAR BHAVESHKUMAR CHATURBHAI</v>
+        <v>PARMAR SHAILESHKUMAR RANCHHODBHAI</v>
       </c>
       <c r="B15" t="str">
-        <v>918849528143</v>
+        <v>919426721834</v>
       </c>
       <c r="C15" t="str">
         <v>not registered on whatsapp</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>PARMAR BHAVIKABEN MOHANBHAI</v>
+        <v>PARMAR SUNINA CHANDRASINH</v>
       </c>
       <c r="B16" t="str">
-        <v>919265544234</v>
+        <v>919265536853</v>
       </c>
       <c r="C16" t="str">
         <v>not registered on whatsapp</v>
@@ -580,10 +580,10 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>PARMAR BINDUBEN DIPAK</v>
+        <v>PARMAR URMILABEN ISHWARBHAI</v>
       </c>
       <c r="B17" t="str">
-        <v>918155837947</v>
+        <v>918320954018</v>
       </c>
       <c r="C17" t="str">
         <v>not registered on whatsapp</v>
@@ -591,10 +591,10 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v xml:space="preserve">PARMAR CHETAN VIRAMBHAI </v>
+        <v>PARMAR VANDANA NARANBHAI</v>
       </c>
       <c r="B18" t="str">
-        <v>919879404618</v>
+        <v>918780444906</v>
       </c>
       <c r="C18" t="str">
         <v>not registered on whatsapp</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>PARMAR DHARMENDRAKUMAR RAMANLAL</v>
+        <v>PARMAR VIMAL JAYANTIBHAI</v>
       </c>
       <c r="B19" t="str">
-        <v>919879530176</v>
+        <v>919979234086</v>
       </c>
       <c r="C19" t="str">
         <v>not registered on whatsapp</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>PARMAR DUSHYANT MAHIPATSINH</v>
+        <v>PARMAR VISHAKHA KANTILAL</v>
       </c>
       <c r="B20" t="str">
-        <v>916354086822</v>
+        <v>919662409623</v>
       </c>
       <c r="C20" t="str">
         <v>not registered on whatsapp</v>
@@ -624,10 +624,10 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>PARMAR HAREKRISHNA SHANKARBHAI</v>
+        <v>PASI CHHATRADHARI GUPTAR</v>
       </c>
       <c r="B21" t="str">
-        <v>919925831699</v>
+        <v>918141812626</v>
       </c>
       <c r="C21" t="str">
         <v>not registered on whatsapp</v>
@@ -635,10 +635,10 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>PARMAR HARSHADBHAI MANUBHAI</v>
+        <v>PATEL AESHA AMITKUMAR</v>
       </c>
       <c r="B22" t="str">
-        <v>917874038911</v>
+        <v>919998979148</v>
       </c>
       <c r="C22" t="str">
         <v>not registered on whatsapp</v>
@@ -646,10 +646,10 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>PARMAR HEENABEN MAHESHBHAI</v>
+        <v>PATEL AJAYKUMAR KESURBHAI</v>
       </c>
       <c r="B23" t="str">
-        <v>919662016110</v>
+        <v>919825073134</v>
       </c>
       <c r="C23" t="str">
         <v>not registered on whatsapp</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>PARMAR HETAL DEVAJIBHAI</v>
+        <v>PATEL AKSHITABEN MUKESHBHAI</v>
       </c>
       <c r="B24" t="str">
-        <v>918153041909</v>
+        <v>919157063142</v>
       </c>
       <c r="C24" t="str">
         <v>not registered on whatsapp</v>
@@ -668,10 +668,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>PARMAR JAGRUTI MAHESHKUMAR</v>
+        <v>PATEL ANKITKUMAR SATISHKUMAR</v>
       </c>
       <c r="B25" t="str">
-        <v>917359745575</v>
+        <v>919726942768</v>
       </c>
       <c r="C25" t="str">
         <v>not registered on whatsapp</v>
@@ -679,10 +679,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>PARMAR JAYESHBHAI RANCHHODBHAI</v>
+        <v>PATEL ANUPAMA SANJAYBHAI</v>
       </c>
       <c r="B26" t="str">
-        <v>919724037392</v>
+        <v>919033664927</v>
       </c>
       <c r="C26" t="str">
         <v>not registered on whatsapp</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>PARMAR JIGNESHKUMAR JASHBHAI</v>
+        <v>PATEL ARVINDBHAI CHHORABHAI</v>
       </c>
       <c r="B27" t="str">
-        <v>919898632212</v>
+        <v>919925203458</v>
       </c>
       <c r="C27" t="str">
         <v>not registered on whatsapp</v>
@@ -701,10 +701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>PARMAR KAMLESHKUMAR KHANABHAI</v>
+        <v>PATEL ASHABEN AJAYKUMAR</v>
       </c>
       <c r="B28" t="str">
-        <v>919429111611</v>
+        <v>919067405735</v>
       </c>
       <c r="C28" t="str">
         <v>not registered on whatsapp</v>
@@ -712,18 +712,205 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>PARMAR KANTILAL MAKANDAS</v>
+        <v>PATEL BHAILALBHAI BECHARBHAI</v>
       </c>
       <c r="B29" t="str">
-        <v>919909910382</v>
+        <v>919979120570</v>
       </c>
       <c r="C29" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>PATEL BHAVIK BALUBHAI</v>
+      </c>
+      <c r="B30" t="str">
+        <v>919426041019</v>
+      </c>
+      <c r="C30" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>PATEL BHOOMI NARENDRAKUMAR</v>
+      </c>
+      <c r="B31" t="str">
+        <v>919429111099</v>
+      </c>
+      <c r="C31" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>PATEL CHANDRESH MUKUNDBHAI</v>
+      </c>
+      <c r="B32" t="str">
+        <v>919913319875</v>
+      </c>
+      <c r="C32" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>PATEL CHIRAG JAGDISHCHANDRA</v>
+      </c>
+      <c r="B33" t="str">
+        <v>919825070436</v>
+      </c>
+      <c r="C33" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>PATEL DAMYANTIBEN BHANABHAI</v>
+      </c>
+      <c r="B34" t="str">
+        <v>919429959539</v>
+      </c>
+      <c r="C34" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>PATEL DARSHANABEN SURESHBHAI</v>
+      </c>
+      <c r="B35" t="str">
+        <v>919909163809</v>
+      </c>
+      <c r="C35" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>PATEL DHAVAL MANUBHAI</v>
+      </c>
+      <c r="B36" t="str">
+        <v>919978914995</v>
+      </c>
+      <c r="C36" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>PATEL DILIPKUMAR BHAILALBHAI</v>
+      </c>
+      <c r="B37" t="str">
+        <v>919428427505</v>
+      </c>
+      <c r="C37" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>PATEL DINESHBHAI HIRABHAI</v>
+      </c>
+      <c r="B38" t="str">
+        <v>919898448998</v>
+      </c>
+      <c r="C38" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>PATEL DIPTENKUMAR PRAVINBHAI</v>
+      </c>
+      <c r="B39" t="str">
+        <v>919328241219</v>
+      </c>
+      <c r="C39" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>PATEL DIVYESH CHANDRAVADAN</v>
+      </c>
+      <c r="B40" t="str">
+        <v>919173420002</v>
+      </c>
+      <c r="C40" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>PATEL HARDIKKUMAR JAGDISHBHAI</v>
+      </c>
+      <c r="B41" t="str">
+        <v>919723888769</v>
+      </c>
+      <c r="C41" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>PATEL HEENABEN  KANAIYALAL</v>
+      </c>
+      <c r="B42" t="str">
+        <v>919426779614</v>
+      </c>
+      <c r="C42" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>PATEL JAMIL AHMED</v>
+      </c>
+      <c r="B43" t="str">
+        <v>919898696687</v>
+      </c>
+      <c r="C43" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>PATEL JIGNISHA NARENDRABHAI</v>
+      </c>
+      <c r="B44" t="str">
+        <v>919601717932</v>
+      </c>
+      <c r="C44" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>PATEL KAMINI LAXMIKANT</v>
+      </c>
+      <c r="B45" t="str">
+        <v>919979587681</v>
+      </c>
+      <c r="C45" t="str">
+        <v>not registered on whatsapp</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>PATEL KANUBHAI NARANBHAI</v>
+      </c>
+      <c r="B46" t="str">
+        <v>919428977711</v>
+      </c>
+      <c r="C46" t="str">
         <v>not registered on whatsapp</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C46"/>
   </ignoredErrors>
 </worksheet>
 </file>